--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6653603696731</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H2">
-        <v>10.6653603696731</v>
+        <v>132.227953</v>
       </c>
       <c r="I2">
-        <v>0.01813289983737844</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J2">
-        <v>0.01813289983737844</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>106.0488665619032</v>
+        <v>676.9560206021628</v>
       </c>
       <c r="R2">
-        <v>106.0488665619032</v>
+        <v>6092.604185419465</v>
       </c>
       <c r="S2">
-        <v>0.00126167200873631</v>
+        <v>0.007100652676159249</v>
       </c>
       <c r="T2">
-        <v>0.00126167200873631</v>
+        <v>0.007100652676159252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.6653603696731</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H3">
-        <v>10.6653603696731</v>
+        <v>132.227953</v>
       </c>
       <c r="I3">
-        <v>0.01813289983737844</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J3">
-        <v>0.01813289983737844</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>539.3763471894189</v>
+        <v>2229.917087631154</v>
       </c>
       <c r="R3">
-        <v>539.3763471894189</v>
+        <v>20069.25378868038</v>
       </c>
       <c r="S3">
-        <v>0.006417004363041397</v>
+        <v>0.02338980118947302</v>
       </c>
       <c r="T3">
-        <v>0.006417004363041397</v>
+        <v>0.02338980118947303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.6653603696731</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H4">
-        <v>10.6653603696731</v>
+        <v>132.227953</v>
       </c>
       <c r="I4">
-        <v>0.01813289983737844</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J4">
-        <v>0.01813289983737844</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>607.8115216238816</v>
+        <v>2661.182611331212</v>
       </c>
       <c r="R4">
-        <v>607.8115216238816</v>
+        <v>23950.64350198091</v>
       </c>
       <c r="S4">
-        <v>0.007231183210927038</v>
+        <v>0.02791338411332694</v>
       </c>
       <c r="T4">
-        <v>0.007231183210927038</v>
+        <v>0.02791338411332694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.6653603696731</v>
+        <v>44.07598433333333</v>
       </c>
       <c r="H5">
-        <v>10.6653603696731</v>
+        <v>132.227953</v>
       </c>
       <c r="I5">
-        <v>0.01813289983737844</v>
+        <v>0.0701615836309811</v>
       </c>
       <c r="J5">
-        <v>0.01813289983737844</v>
+        <v>0.07016158363098111</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>270.9101601087904</v>
+        <v>1120.950012745928</v>
       </c>
       <c r="R5">
-        <v>270.9101601087904</v>
+        <v>10088.55011471335</v>
       </c>
       <c r="S5">
-        <v>0.003223040254673694</v>
+        <v>0.01175774565202189</v>
       </c>
       <c r="T5">
-        <v>0.003223040254673694</v>
+        <v>0.01175774565202189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>536.503082646008</v>
+        <v>539.7636413333333</v>
       </c>
       <c r="H6">
-        <v>536.503082646008</v>
+        <v>1619.290924</v>
       </c>
       <c r="I6">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="J6">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>5334.610538182884</v>
+        <v>8290.143764898481</v>
       </c>
       <c r="R6">
-        <v>5334.610538182884</v>
+        <v>74611.29388408632</v>
       </c>
       <c r="S6">
-        <v>0.06346629635693771</v>
+        <v>0.08695606467553034</v>
       </c>
       <c r="T6">
-        <v>0.06346629635693771</v>
+        <v>0.08695606467553035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>536.503082646008</v>
+        <v>539.7636413333333</v>
       </c>
       <c r="H7">
-        <v>536.503082646008</v>
+        <v>1619.290924</v>
       </c>
       <c r="I7">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="J7">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>27132.42337280126</v>
+        <v>27308.02692887214</v>
       </c>
       <c r="R7">
-        <v>27132.42337280126</v>
+        <v>245772.2423598492</v>
       </c>
       <c r="S7">
-        <v>0.3227966522269622</v>
+        <v>0.2864363541971952</v>
       </c>
       <c r="T7">
-        <v>0.3227966522269622</v>
+        <v>0.2864363541971952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>536.503082646008</v>
+        <v>539.7636413333333</v>
       </c>
       <c r="H8">
-        <v>536.503082646008</v>
+        <v>1619.290924</v>
       </c>
       <c r="I8">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="J8">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>30574.94015356634</v>
+        <v>32589.39393575315</v>
       </c>
       <c r="R8">
-        <v>30574.94015356634</v>
+        <v>293304.5454217783</v>
       </c>
       <c r="S8">
-        <v>0.3637525549415003</v>
+        <v>0.3418330884456489</v>
       </c>
       <c r="T8">
-        <v>0.3637525549415003</v>
+        <v>0.3418330884456489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>536.503082646008</v>
+        <v>539.7636413333333</v>
       </c>
       <c r="H9">
-        <v>536.503082646008</v>
+        <v>1619.290924</v>
       </c>
       <c r="I9">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="J9">
-        <v>0.9121451430490211</v>
+        <v>0.8592132980166053</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>13627.68167044547</v>
+        <v>13727.38623502071</v>
       </c>
       <c r="R9">
-        <v>13627.68167044547</v>
+        <v>123546.4761151864</v>
       </c>
       <c r="S9">
-        <v>0.1621296395236209</v>
+        <v>0.1439877906982309</v>
       </c>
       <c r="T9">
-        <v>0.1621296395236209</v>
+        <v>0.1439877906982309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>41.0088736475892</v>
+        <v>0.1526826666666667</v>
       </c>
       <c r="H10">
-        <v>41.0088736475892</v>
+        <v>0.458048</v>
       </c>
       <c r="I10">
-        <v>0.06972195711360057</v>
+        <v>0.0002430452285607389</v>
       </c>
       <c r="J10">
-        <v>0.06972195711360057</v>
+        <v>0.0002430452285607389</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>407.7634902683023</v>
+        <v>2.345028749895111</v>
       </c>
       <c r="R10">
-        <v>407.7634902683023</v>
+        <v>21.105258749056</v>
       </c>
       <c r="S10">
-        <v>0.004851195477472015</v>
+        <v>2.459721778351505E-05</v>
       </c>
       <c r="T10">
-        <v>0.004851195477472015</v>
+        <v>2.459721778351506E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>41.0088736475892</v>
+        <v>0.1526826666666667</v>
       </c>
       <c r="H11">
-        <v>41.0088736475892</v>
+        <v>0.458048</v>
       </c>
       <c r="I11">
-        <v>0.06972195711360057</v>
+        <v>0.0002430452285607389</v>
       </c>
       <c r="J11">
-        <v>0.06972195711360057</v>
+        <v>0.0002430452285607389</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>2073.930528712838</v>
+        <v>7.724607686812444</v>
       </c>
       <c r="R11">
-        <v>2073.930528712838</v>
+        <v>69.521469181312</v>
       </c>
       <c r="S11">
-        <v>0.02467372053065086</v>
+        <v>8.102410581245056E-05</v>
       </c>
       <c r="T11">
-        <v>0.02467372053065086</v>
+        <v>8.102410581245057E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>41.0088736475892</v>
+        <v>0.1526826666666667</v>
       </c>
       <c r="H12">
-        <v>41.0088736475892</v>
+        <v>0.458048</v>
       </c>
       <c r="I12">
-        <v>0.06972195711360057</v>
+        <v>0.0002430452285607389</v>
       </c>
       <c r="J12">
-        <v>0.06972195711360057</v>
+        <v>0.0002430452285607389</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>2337.067387117898</v>
+        <v>9.218545285617779</v>
       </c>
       <c r="R12">
-        <v>2337.067387117898</v>
+        <v>82.96690757056001</v>
       </c>
       <c r="S12">
-        <v>0.02780428118141164</v>
+        <v>9.669415185109293E-05</v>
       </c>
       <c r="T12">
-        <v>0.02780428118141164</v>
+        <v>9.669415185109293E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1526826666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.458048</v>
+      </c>
+      <c r="I13">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="J13">
+        <v>0.0002430452285607389</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="N13">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="P13">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="Q13">
+        <v>3.883058761699555</v>
+      </c>
+      <c r="R13">
+        <v>34.947528855296</v>
+      </c>
+      <c r="S13">
+        <v>4.072975311368031E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.072975311368031E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H14">
+        <v>132.643492</v>
+      </c>
+      <c r="I14">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J14">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.35884066666667</v>
+      </c>
+      <c r="N14">
+        <v>46.076522</v>
+      </c>
+      <c r="O14">
+        <v>0.1012042817263867</v>
+      </c>
+      <c r="P14">
+        <v>0.1012042817263867</v>
+      </c>
+      <c r="Q14">
+        <v>679.0834196994249</v>
+      </c>
+      <c r="R14">
+        <v>6111.750777294824</v>
+      </c>
+      <c r="S14">
+        <v>0.007122967156913547</v>
+      </c>
+      <c r="T14">
+        <v>0.00712296715691355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H15">
+        <v>132.643492</v>
+      </c>
+      <c r="I15">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J15">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.59256466666667</v>
+      </c>
+      <c r="N15">
+        <v>151.777694</v>
+      </c>
+      <c r="O15">
+        <v>0.3333704853712116</v>
+      </c>
+      <c r="P15">
+        <v>0.3333704853712116</v>
+      </c>
+      <c r="Q15">
+        <v>2236.924815540828</v>
+      </c>
+      <c r="R15">
+        <v>20132.32333986745</v>
+      </c>
+      <c r="S15">
+        <v>0.02346330587873092</v>
+      </c>
+      <c r="T15">
+        <v>0.02346330587873092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>41.0088736475892</v>
-      </c>
-      <c r="H13">
-        <v>41.0088736475892</v>
-      </c>
-      <c r="I13">
-        <v>0.06972195711360057</v>
-      </c>
-      <c r="J13">
-        <v>0.06972195711360057</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>25.4009382448175</v>
-      </c>
-      <c r="N13">
-        <v>25.4009382448175</v>
-      </c>
-      <c r="O13">
-        <v>0.1777454397023606</v>
-      </c>
-      <c r="P13">
-        <v>0.1777454397023606</v>
-      </c>
-      <c r="Q13">
-        <v>1041.663867011937</v>
-      </c>
-      <c r="R13">
-        <v>1041.663867011937</v>
-      </c>
-      <c r="S13">
-        <v>0.01239275992406606</v>
-      </c>
-      <c r="T13">
-        <v>0.01239275992406606</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H16">
+        <v>132.643492</v>
+      </c>
+      <c r="I16">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J16">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60.37715666666667</v>
+      </c>
+      <c r="N16">
+        <v>181.13147</v>
+      </c>
+      <c r="O16">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="P16">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="Q16">
+        <v>2669.545632432582</v>
+      </c>
+      <c r="R16">
+        <v>24025.91069189324</v>
+      </c>
+      <c r="S16">
+        <v>0.02800110459494906</v>
+      </c>
+      <c r="T16">
+        <v>0.02800110459494907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>44.21449733333333</v>
+      </c>
+      <c r="H17">
+        <v>132.643492</v>
+      </c>
+      <c r="I17">
+        <v>0.07038207312385282</v>
+      </c>
+      <c r="J17">
+        <v>0.07038207312385283</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="N17">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="P17">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="Q17">
+        <v>1124.47270546542</v>
+      </c>
+      <c r="R17">
+        <v>10120.25434918878</v>
+      </c>
+      <c r="S17">
+        <v>0.01179469549325928</v>
+      </c>
+      <c r="T17">
+        <v>0.01179469549325929</v>
       </c>
     </row>
   </sheetData>
